--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Manual Gantt Chart" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
   <si>
     <t>Start Date</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>Final rehearsal</t>
+  </si>
+  <si>
+    <t>iOS link Xcide to Github</t>
+  </si>
+  <si>
+    <t>Android Link Android Studio to Github</t>
   </si>
 </sst>
 </file>
@@ -522,21 +528,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -565,6 +556,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -647,9 +653,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Basic Manual Gantt Chart'!$B$2:$B$47</c:f>
+              <c:f>'Basic Manual Gantt Chart'!$B$2:$B$49</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>Design UI</c:v>
                 </c:pt>
@@ -669,117 +675,123 @@
                   <c:v>iOS Link Xcode to Firebase</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>iOS link Xcide to Github</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>iOS Download Firebase files to the project directory</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>iOS Build the login page</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>iOS Install SDK for Cocoapods</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>iOS Login with email and password (and Gmail if possible)</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>iOS Fetch users from database</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>iOS  Upload images to Firebase</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>iOS Load images from Firebase</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>iOS Send messages</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>iOS Load messages</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>iOS Encryption</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>iOS Create chat bubbles </c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>iOS Add keyboard</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>iOS Send images</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>iOS Load images</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>iOS Chat log</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>iOS Revision and Testing</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>Android</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>Android Link Android Studio to Firebase</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
+                  <c:v>Android Link Android Studio to Github</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Android Download Firebase files to the project directory</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>Android Implement the design </c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>Android Build the login page</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>Android Login with email and password (and Gmail if possible)</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>Android Fetch users from database</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>Android Upload images to Firebase</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>Android Load images from Firebase</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>Android Send messages</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>Android Load messages</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>Android Create chat bubbles </c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>Android Add keyboard</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>Android Send images</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>Android Load images</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>Android encryption</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>Android Chat log</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>Android Revision and Testing</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>Implementing new features</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>Debugging</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>Final rehearsal</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>Final report and presentation</c:v>
                 </c:pt>
               </c:strCache>
@@ -787,10 +799,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Basic Manual Gantt Chart'!$C$2:$C$47</c:f>
+              <c:f>'Basic Manual Gantt Chart'!$C$2:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>42761.0</c:v>
                 </c:pt>
@@ -813,52 +825,52 @@
                   <c:v>42763.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>42763.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>42767.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>42769.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42771.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>42771.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>42771.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>42777.0</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>42779.0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>42781.0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>42783.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42785.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>42785.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>42785.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>42787.0</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>42789.0</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>42791.0</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>42793.0</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>42795.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42763.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>42763.0</c:v>
@@ -867,60 +879,66 @@
                   <c:v>42763.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>42763.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42763.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>42767.0</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>42769.0</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>42771.0</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>42771.0</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>42777.0</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>42779.0</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>42781.0</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>42783.0</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>42785.0</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>42787.0</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>42789.0</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>42791.0</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>42793.0</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>42793.0</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>42795.0</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>42799.0</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>42799.0</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>42819.0</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>42773.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1028,7 +1046,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="6"/>
+            <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1045,7 +1063,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="7"/>
+            <c:idx val="8"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1062,7 +1080,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="8"/>
+            <c:idx val="9"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1079,7 +1097,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="9"/>
+            <c:idx val="10"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1096,7 +1114,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="10"/>
+            <c:idx val="11"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1113,7 +1131,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="11"/>
+            <c:idx val="12"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1130,7 +1148,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="12"/>
+            <c:idx val="13"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1147,7 +1165,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="13"/>
+            <c:idx val="14"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1164,7 +1182,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="14"/>
+            <c:idx val="15"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1181,7 +1199,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="16"/>
+            <c:idx val="17"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1198,7 +1216,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="17"/>
+            <c:idx val="18"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1215,7 +1233,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="18"/>
+            <c:idx val="19"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1232,7 +1250,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="19"/>
+            <c:idx val="20"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1249,7 +1267,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="20"/>
+            <c:idx val="21"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1266,7 +1284,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="22"/>
+            <c:idx val="23"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1282,7 +1300,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="23"/>
+            <c:idx val="24"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1299,7 +1317,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="24"/>
+            <c:idx val="26"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1316,7 +1334,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="25"/>
+            <c:idx val="27"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1333,7 +1351,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="26"/>
+            <c:idx val="28"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1350,7 +1368,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="27"/>
+            <c:idx val="29"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1389,7 +1407,7 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="22"/>
+              <c:idx val="23"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.0"/>
@@ -1452,10 +1470,6 @@
                   <a:prstGeom prst="rect">
                     <a:avLst/>
                   </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
                 </c15:spPr>
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -1478,9 +1492,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Basic Manual Gantt Chart'!$B$2:$B$47</c:f>
+              <c:f>'Basic Manual Gantt Chart'!$B$2:$B$49</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>Design UI</c:v>
                 </c:pt>
@@ -1500,117 +1514,123 @@
                   <c:v>iOS Link Xcode to Firebase</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>iOS link Xcide to Github</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>iOS Download Firebase files to the project directory</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>iOS Build the login page</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>iOS Install SDK for Cocoapods</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>iOS Login with email and password (and Gmail if possible)</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>iOS Fetch users from database</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>iOS  Upload images to Firebase</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>iOS Load images from Firebase</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>iOS Send messages</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>iOS Load messages</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>iOS Encryption</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>iOS Create chat bubbles </c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>iOS Add keyboard</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>iOS Send images</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>iOS Load images</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>iOS Chat log</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>iOS Revision and Testing</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>Android</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>Android Link Android Studio to Firebase</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
+                  <c:v>Android Link Android Studio to Github</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Android Download Firebase files to the project directory</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>Android Implement the design </c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>Android Build the login page</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>Android Login with email and password (and Gmail if possible)</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>Android Fetch users from database</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>Android Upload images to Firebase</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>Android Load images from Firebase</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>Android Send messages</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>Android Load messages</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>Android Create chat bubbles </c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>Android Add keyboard</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>Android Send images</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>Android Load images</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>Android encryption</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>Android Chat log</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>Android Revision and Testing</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>Implementing new features</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>Debugging</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>Final rehearsal</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>Final report and presentation</c:v>
                 </c:pt>
               </c:strCache>
@@ -1618,10 +1638,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Basic Manual Gantt Chart'!$E$2:$E$47</c:f>
+              <c:f>'Basic Manual Gantt Chart'!$E$2:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>6.0</c:v>
                 </c:pt>
@@ -1641,10 +1661,10 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.0</c:v>
@@ -1653,10 +1673,10 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.0</c:v>
@@ -1668,10 +1688,10 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2.0</c:v>
@@ -1686,34 +1706,34 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>38.0</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2.0</c:v>
@@ -1734,7 +1754,7 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2.0</c:v>
@@ -1743,21 +1763,27 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>14.0</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>20.0</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>50.0</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1774,11 +1800,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-980749792"/>
-        <c:axId val="-979908864"/>
+        <c:axId val="-877913712"/>
+        <c:axId val="-1018661760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-980749792"/>
+        <c:axId val="-877913712"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1821,7 +1847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-979908864"/>
+        <c:crossAx val="-1018661760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1829,7 +1855,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-979908864"/>
+        <c:axId val="-1018661760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42823.0"/>
@@ -1882,7 +1908,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-980749792"/>
+        <c:crossAx val="-877913712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2889,11 +2915,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1015962592"/>
-        <c:axId val="-1015971584"/>
+        <c:axId val="-877936320"/>
+        <c:axId val="-877934000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1015962592"/>
+        <c:axId val="-877936320"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2936,7 +2962,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1015971584"/>
+        <c:crossAx val="-877934000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2944,7 +2970,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1015971584"/>
+        <c:axId val="-877934000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42576.0"/>
@@ -2998,7 +3024,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1015962592"/>
+        <c:crossAx val="-877936320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -4006,11 +4032,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-980663808"/>
-        <c:axId val="-980661056"/>
+        <c:axId val="-979464624"/>
+        <c:axId val="-980258288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-980663808"/>
+        <c:axId val="-979464624"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4053,7 +4079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-980661056"/>
+        <c:crossAx val="-980258288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4061,7 +4087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-980661056"/>
+        <c:axId val="-980258288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42576.0"/>
@@ -4115,7 +4141,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-980663808"/>
+        <c:crossAx val="-979464624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -4203,46 +4229,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5292,511 +5278,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5809,7 +5290,7 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>651008</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>138740</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6352,10 +5833,10 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H62"/>
+  <dimension ref="B1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="119" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="82" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6384,10 +5865,10 @@
       <c r="D1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="31" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6403,7 +5884,7 @@
         <v>42767</v>
       </c>
       <c r="E2" s="21">
-        <f t="shared" ref="E2:E62" si="0">IF(ISBLANK(C2),"", (D2-C2))</f>
+        <f t="shared" ref="E2:E64" si="0">IF(ISBLANK(C2),"", (D2-C2))</f>
         <v>6</v>
       </c>
       <c r="F2" s="21"/>
@@ -6464,7 +5945,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="36" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="3">
@@ -6472,7 +5953,7 @@
         <v>42763</v>
       </c>
       <c r="D6" s="3">
-        <f>D23+2</f>
+        <f>D24+2</f>
         <v>42801</v>
       </c>
       <c r="E6" s="21">
@@ -6485,7 +5966,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="35" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="3">
@@ -6504,54 +5985,54 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="40" t="s">
-        <v>48</v>
+      <c r="B8" s="35" t="s">
+        <v>79</v>
       </c>
       <c r="C8" s="3">
         <f>C7</f>
         <v>42763</v>
       </c>
       <c r="D8" s="3">
+        <f>C8+2</f>
+        <v>42765</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3">
+        <f>C7</f>
+        <v>42763</v>
+      </c>
+      <c r="D9" s="3">
         <f>D7+2</f>
         <v>42767</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E9" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="40" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <f>D2</f>
         <v>42767</v>
       </c>
-      <c r="D9" s="3">
-        <f>C9+2</f>
-        <v>42769</v>
-      </c>
-      <c r="E9" s="21">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3">
-        <f>D9</f>
-        <v>42769</v>
-      </c>
       <c r="D10" s="3">
         <f>C10+2</f>
-        <v>42771</v>
+        <v>42769</v>
       </c>
       <c r="E10" s="21">
         <f t="shared" si="0"/>
@@ -6561,16 +6042,16 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="40" t="s">
-        <v>37</v>
+      <c r="B11" s="35" t="s">
+        <v>36</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ref="C11:C22" si="1">D10</f>
-        <v>42771</v>
+        <f>D10</f>
+        <v>42769</v>
       </c>
       <c r="D11" s="3">
         <f>C11+2</f>
-        <v>42773</v>
+        <v>42771</v>
       </c>
       <c r="E11" s="21">
         <f t="shared" si="0"/>
@@ -6580,804 +6061,842 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="40" t="s">
-        <v>38</v>
+      <c r="B12" s="35" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="3">
-        <f>C11</f>
+        <f t="shared" ref="C12:C23" si="1">D11</f>
         <v>42771</v>
       </c>
       <c r="D12" s="3">
-        <f>C12+6</f>
-        <v>42777</v>
+        <f>C12+2</f>
+        <v>42773</v>
       </c>
       <c r="E12" s="21">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3">
+        <f>C12</f>
+        <v>42771</v>
+      </c>
+      <c r="D13" s="3">
+        <f>C13+6</f>
+        <v>42777</v>
+      </c>
+      <c r="E13" s="21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="3">
         <f t="shared" si="1"/>
         <v>42777</v>
       </c>
-      <c r="D13" s="3">
-        <f>C13+2</f>
+      <c r="D14" s="3">
+        <f>C14+2</f>
         <v>42779</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E14" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="40" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="3">
         <f t="shared" si="1"/>
         <v>42779</v>
       </c>
-      <c r="D14" s="3">
-        <f>C14+2</f>
+      <c r="D15" s="3">
+        <f>C15+2</f>
         <v>42781</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E15" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="40" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C16" s="3">
         <f t="shared" si="1"/>
         <v>42781</v>
       </c>
-      <c r="D15" s="3">
-        <f>C15+2</f>
+      <c r="D16" s="3">
+        <f>C16+2</f>
         <v>42783</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E16" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="40" t="s">
+      <c r="F16" s="21"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="3">
         <f t="shared" si="1"/>
         <v>42783</v>
       </c>
-      <c r="D16" s="3">
-        <f>C16+2</f>
+      <c r="D17" s="3">
+        <f>C17+2</f>
         <v>42785</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E17" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="3">
-        <f>D16</f>
-        <v>42785</v>
-      </c>
-      <c r="D17" s="3">
-        <f>C17+4</f>
-        <v>42789</v>
-      </c>
-      <c r="E17" s="21">
-        <f t="shared" si="0"/>
-        <v>4</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="40" t="s">
-        <v>43</v>
+      <c r="B18" s="35" t="s">
+        <v>76</v>
       </c>
       <c r="C18" s="3">
-        <f>D16</f>
+        <f>D17</f>
         <v>42785</v>
       </c>
       <c r="D18" s="3">
-        <f>C18+2</f>
-        <v>42787</v>
+        <f>C18+4</f>
+        <v>42789</v>
       </c>
       <c r="E18" s="21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3">
+        <f>D17</f>
+        <v>42785</v>
+      </c>
+      <c r="D19" s="3">
+        <f>C19+2</f>
+        <v>42787</v>
+      </c>
+      <c r="E19" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="3">
         <f t="shared" si="1"/>
         <v>42787</v>
       </c>
-      <c r="D19" s="3">
-        <f>C19+2</f>
+      <c r="D20" s="3">
+        <f>C20+2</f>
         <v>42789</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E20" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="40" t="s">
+      <c r="F20" s="21"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <f t="shared" si="1"/>
         <v>42789</v>
       </c>
-      <c r="D20" s="3">
-        <f>C20+2</f>
+      <c r="D21" s="3">
+        <f>C21+2</f>
         <v>42791</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E21" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="40" t="s">
+      <c r="F21" s="21"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
         <f t="shared" si="1"/>
         <v>42791</v>
       </c>
-      <c r="D21" s="3">
-        <f>C21+2</f>
+      <c r="D22" s="3">
+        <f>C22+2</f>
         <v>42793</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E22" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="40" t="s">
+      <c r="F22" s="21"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="3">
         <f t="shared" si="1"/>
         <v>42793</v>
       </c>
-      <c r="D22" s="3">
-        <f>C22+2</f>
+      <c r="D23" s="3">
+        <f>C23+2</f>
         <v>42795</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E23" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
-      </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="3">
-        <f>D22</f>
-        <v>42795</v>
-      </c>
-      <c r="D23" s="3">
-        <f>C23+4</f>
-        <v>42799</v>
-      </c>
-      <c r="E23" s="21">
-        <f t="shared" si="0"/>
-        <v>4</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="3">
+        <f>D23</f>
+        <v>42795</v>
+      </c>
+      <c r="D24" s="3">
+        <f>C24+4</f>
+        <v>42799</v>
+      </c>
+      <c r="E24" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="3">
-        <f>C25</f>
+      <c r="C25" s="3">
+        <f>C26</f>
         <v>42763</v>
       </c>
-      <c r="D24" s="3">
-        <f>D41+2</f>
+      <c r="D25" s="3">
+        <f>D43+2</f>
         <v>42801</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E25" s="32">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F25" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="38" t="s">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C26" s="3">
         <f>D3</f>
         <v>42763</v>
       </c>
-      <c r="D25" s="3">
-        <f>C25+2</f>
+      <c r="D26" s="3">
+        <f>C26+2</f>
         <v>42765</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E26" s="34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="38" t="s">
+      <c r="F26" s="34"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="3">
+        <f>C26</f>
+        <v>42763</v>
+      </c>
+      <c r="D27" s="3">
+        <f>D26</f>
+        <v>42765</v>
+      </c>
+      <c r="E27" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="3">
-        <f>C25</f>
+      <c r="C28" s="3">
+        <f>C26</f>
         <v>42763</v>
       </c>
-      <c r="D26" s="3">
-        <f>D25+2</f>
+      <c r="D28" s="3">
+        <f>D26+2</f>
         <v>42767</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E28" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="38" t="s">
+      <c r="F28" s="34"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="3">
-        <f>D26</f>
+      <c r="C29" s="3">
+        <f>D28</f>
         <v>42767</v>
-      </c>
-      <c r="D27" s="3">
-        <f>C27+2</f>
-        <v>42769</v>
-      </c>
-      <c r="E27" s="39">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="3">
-        <f>D27</f>
-        <v>42769</v>
-      </c>
-      <c r="D28" s="3">
-        <f>C28+2</f>
-        <v>42771</v>
-      </c>
-      <c r="E28" s="39">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F28" s="39"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="3">
-        <f t="shared" ref="C29:C38" si="2">D28</f>
-        <v>42771</v>
       </c>
       <c r="D29" s="3">
         <f>C29+2</f>
+        <v>42769</v>
+      </c>
+      <c r="E29" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F29" s="34"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="3">
+        <f>D29</f>
+        <v>42769</v>
+      </c>
+      <c r="D30" s="3">
+        <f>C30+2</f>
+        <v>42771</v>
+      </c>
+      <c r="E30" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F30" s="34"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" ref="C31:C40" si="2">D30</f>
+        <v>42771</v>
+      </c>
+      <c r="D31" s="3">
+        <f>C31+2</f>
         <v>42773</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E31" s="34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F29" s="39"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="38" t="s">
+      <c r="F31" s="34"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="3">
-        <f>C29</f>
+      <c r="C32" s="3">
+        <f>C31</f>
         <v>42771</v>
       </c>
-      <c r="D30" s="3">
-        <f>C30+6</f>
+      <c r="D32" s="3">
+        <f>C32+6</f>
         <v>42777</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E32" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F30" s="39"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="38" t="s">
+      <c r="F32" s="34"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C33" s="3">
         <f t="shared" si="2"/>
         <v>42777</v>
       </c>
-      <c r="D31" s="3">
-        <f>C31+2</f>
+      <c r="D33" s="3">
+        <f t="shared" ref="D33:D40" si="3">C33+2</f>
         <v>42779</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E33" s="34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F31" s="39"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="38" t="s">
+      <c r="F33" s="34"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C34" s="3">
         <f t="shared" si="2"/>
         <v>42779</v>
       </c>
-      <c r="D32" s="3">
-        <f>C32+2</f>
+      <c r="D34" s="3">
+        <f t="shared" si="3"/>
         <v>42781</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E34" s="34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F32" s="39"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="38" t="s">
+      <c r="F34" s="34"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C35" s="3">
         <f t="shared" si="2"/>
         <v>42781</v>
       </c>
-      <c r="D33" s="3">
-        <f>C33+2</f>
+      <c r="D35" s="3">
+        <f t="shared" si="3"/>
         <v>42783</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E35" s="34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F33" s="39"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="38" t="s">
+      <c r="F35" s="34"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C36" s="3">
         <f t="shared" si="2"/>
         <v>42783</v>
       </c>
-      <c r="D34" s="3">
-        <f>C34+2</f>
+      <c r="D36" s="3">
+        <f t="shared" si="3"/>
         <v>42785</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E36" s="34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F34" s="39"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="38" t="s">
+      <c r="F36" s="34"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C37" s="3">
         <f t="shared" si="2"/>
         <v>42785</v>
       </c>
-      <c r="D35" s="3">
-        <f>C35+2</f>
+      <c r="D37" s="3">
+        <f t="shared" si="3"/>
         <v>42787</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E37" s="34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F35" s="39"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="38" t="s">
+      <c r="F37" s="34"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C38" s="3">
         <f t="shared" si="2"/>
         <v>42787</v>
       </c>
-      <c r="D36" s="3">
-        <f>C36+2</f>
+      <c r="D38" s="3">
+        <f t="shared" si="3"/>
         <v>42789</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E38" s="34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F36" s="39"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="38" t="s">
+      <c r="F38" s="34"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C39" s="3">
         <f t="shared" si="2"/>
         <v>42789</v>
       </c>
-      <c r="D37" s="3">
-        <f>C37+2</f>
+      <c r="D39" s="3">
+        <f t="shared" si="3"/>
         <v>42791</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E39" s="34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F37" s="39"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="38" t="s">
+      <c r="F39" s="34"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C40" s="3">
         <f t="shared" si="2"/>
         <v>42791</v>
       </c>
-      <c r="D38" s="3">
-        <f>C38+2</f>
+      <c r="D40" s="3">
+        <f t="shared" si="3"/>
         <v>42793</v>
       </c>
-      <c r="E38" s="39">
+      <c r="E40" s="34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F38" s="39"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="38" t="s">
+      <c r="F40" s="34"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="3">
-        <f>D38</f>
+      <c r="C41" s="3">
+        <f>D40</f>
         <v>42793</v>
       </c>
-      <c r="D39" s="3">
-        <f>C39+4</f>
+      <c r="D41" s="3">
+        <f>C41+4</f>
         <v>42797</v>
       </c>
-      <c r="E39" s="39">
+      <c r="E41" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F39" s="39"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="38" t="s">
+      <c r="F41" s="34"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="3">
-        <f>D38</f>
+      <c r="C42" s="3">
+        <f>D40</f>
         <v>42793</v>
       </c>
-      <c r="D40" s="3">
-        <f>C40+2</f>
+      <c r="D42" s="3">
+        <f>C42+2</f>
         <v>42795</v>
       </c>
-      <c r="E40" s="39">
+      <c r="E42" s="34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F40" s="39"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="47" t="s">
+      <c r="F42" s="34"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="43">
-        <f>D40</f>
+      <c r="C43" s="38">
+        <f>D42</f>
         <v>42795</v>
       </c>
-      <c r="D41" s="46">
-        <f>C41+4</f>
+      <c r="D43" s="41">
+        <f>C43+4</f>
         <v>42799</v>
       </c>
-      <c r="E41" s="39">
+      <c r="E43" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F41" s="39"/>
-      <c r="H41" s="44"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="48" t="s">
+      <c r="F43" s="34"/>
+      <c r="H43" s="39"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="3">
-        <f>D23</f>
+      <c r="C44" s="3">
+        <f>D24</f>
         <v>42799</v>
       </c>
-      <c r="D42" s="3">
-        <f>C42+14</f>
+      <c r="D44" s="3">
+        <f>C44+14</f>
         <v>42813</v>
       </c>
-      <c r="E42" s="39">
+      <c r="E44" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F42" s="39"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="48" t="s">
+      <c r="F44" s="34"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="3">
-        <f>C42</f>
+      <c r="C45" s="3">
+        <f>C44</f>
         <v>42799</v>
       </c>
-      <c r="D43" s="3">
-        <f>D45-4</f>
+      <c r="D45" s="3">
+        <f>D47-4</f>
         <v>42819</v>
       </c>
-      <c r="E43" s="39">
+      <c r="E45" s="34">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F43" s="39"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="48" t="s">
+      <c r="F45" s="34"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="3">
-        <f>D43</f>
+      <c r="C46" s="3">
+        <f>D45</f>
         <v>42819</v>
       </c>
-      <c r="D44" s="3">
-        <f>C44+1</f>
+      <c r="D46" s="3">
+        <f>C46+1</f>
         <v>42820</v>
       </c>
-      <c r="E44" s="39">
+      <c r="E46" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F44" s="39"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="35" t="s">
+      <c r="F46" s="34"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C47" s="3">
         <f>D5</f>
         <v>42773</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D47" s="3">
         <v>42823</v>
       </c>
-      <c r="E45" s="39">
-        <f>IF(ISBLANK(C45),"", (D45-C45))</f>
+      <c r="E47" s="34">
+        <f>IF(ISBLANK(C47),"", (D47-C47))</f>
         <v>50</v>
       </c>
-      <c r="F45" s="39"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="39" t="str">
+      <c r="F47" s="34"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F46" s="39"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="39" t="str">
+      <c r="F48" s="34"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F47" s="39"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="39" t="str">
+      <c r="F49" s="34"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F48" s="39"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="39" t="str">
+      <c r="F50" s="34"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F49" s="39"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="39" t="str">
+      <c r="F51" s="34"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F50" s="39"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="39" t="str">
+      <c r="F52" s="34"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F51" s="39"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="39" t="str">
+      <c r="F53" s="34"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F52" s="39"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="39" t="str">
+      <c r="F54" s="34"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F53" s="39"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="39" t="str">
+      <c r="F55" s="34"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F54" s="39"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="39" t="str">
+      <c r="F56" s="34"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F55" s="39"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="39" t="str">
+      <c r="F57" s="34"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F56" s="39"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="39" t="str">
+      <c r="F58" s="34"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F57" s="39"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="39" t="str">
+      <c r="F59" s="34"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F58" s="39"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="39" t="str">
+      <c r="F60" s="34"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F59" s="39"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="39" t="str">
+      <c r="F61" s="34"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F60" s="39"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="39" t="str">
+      <c r="F62" s="34"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F61" s="39"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="39" t="str">
+      <c r="F63" s="34"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F62" s="39"/>
+      <c r="F64" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -7413,24 +6932,24 @@
   <sheetData>
     <row r="1" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:22" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
@@ -7487,15 +7006,15 @@
         <f>C5</f>
         <v>42576</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
     </row>
     <row r="5" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
@@ -8105,18 +7624,18 @@
       <c r="J31" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K31" s="29" t="s">
+      <c r="K31" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="31" t="s">
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
     </row>
     <row r="32" spans="2:18" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="14"/>
@@ -8126,18 +7645,18 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="K32" s="30" t="s">
+      <c r="K32" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30" t="s">
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
     </row>
     <row r="33" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="14"/>
@@ -8370,24 +7889,24 @@
   <sheetData>
     <row r="1" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:22" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
@@ -8444,15 +7963,15 @@
         <f>C5</f>
         <v>42576</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
     </row>
     <row r="5" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
@@ -9062,18 +8581,18 @@
       <c r="J31" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K31" s="29" t="s">
+      <c r="K31" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="31" t="s">
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
     </row>
     <row r="32" spans="2:18" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="14"/>
@@ -9083,18 +8602,18 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="K32" s="30" t="s">
+      <c r="K32" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30" t="s">
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
     </row>
     <row r="33" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="14"/>
